--- a/max_margem_contrib/comparacao_vendas_producao.xlsx
+++ b/max_margem_contrib/comparacao_vendas_producao.xlsx
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Escondidinho</t>
+          <t>Bolinho</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -474,161 +474,161 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Panqueca</t>
+          <t>Empadão</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Esfiha</t>
+          <t>Escondidinho</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>-80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Macarrão</t>
+          <t>Esfiha</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sanduíche natural</t>
+          <t>Estrogonofe</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>-40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Empadão</t>
+          <t>Lasanha</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pão de queijo (12 unid)</t>
+          <t>Macarrão</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>-4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lasanha</t>
+          <t>Panqueca</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quiche</t>
+          <t>Pão de queijo (12 unid)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>-28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Estrogonofe</t>
+          <t>Quiche</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bolinho</t>
+          <t>Sanduíche natural</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
